--- a/Data Files/Website/DataFiles_CRM/Data_CSR_Management.xlsx
+++ b/Data Files/Website/DataFiles_CRM/Data_CSR_Management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18650" windowHeight="7110"/>
+    <workbookView windowWidth="11890" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>SearchName</t>
   </si>
@@ -26,12 +26,27 @@
     <t>SearchIDNumber</t>
   </si>
   <si>
+    <t>Filter Custome Type 1</t>
+  </si>
+  <si>
+    <t>Filter Custome Type 2</t>
+  </si>
+  <si>
+    <t>Filter Custome Type 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter Custome Type </t>
+  </si>
+  <si>
     <t>SearchAccountNumber</t>
   </si>
   <si>
     <t>PhoneNumber</t>
   </si>
   <si>
+    <t>ReferralCode</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
@@ -101,73 +116,91 @@
     <t>CompanyName</t>
   </si>
   <si>
+    <t>Verifikasi</t>
+  </si>
+  <si>
     <t>untuk registrasi</t>
   </si>
   <si>
+    <t>08956151</t>
+  </si>
+  <si>
+    <t>Semua</t>
+  </si>
+  <si>
+    <t>Nasabah Baru</t>
+  </si>
+  <si>
+    <t>Nasabah Senyumku</t>
+  </si>
+  <si>
+    <t>Nasabah Tidak Melanjutkan</t>
+  </si>
+  <si>
+    <t>tersenyumlah1@yopmail.com</t>
+  </si>
+  <si>
+    <t>3171011301920004</t>
+  </si>
+  <si>
+    <t>IRHAN SYAH</t>
+  </si>
+  <si>
+    <t>Kantor</t>
+  </si>
+  <si>
+    <t>Jln Kalibata No.9</t>
+  </si>
+  <si>
+    <t>DKI JAKARTA</t>
+  </si>
+  <si>
+    <t>KOTA ADM. JAKARTA SELATAN</t>
+  </si>
+  <si>
+    <t>PANCORAN</t>
+  </si>
+  <si>
+    <t>KALIBATA</t>
+  </si>
+  <si>
+    <t>SMP</t>
+  </si>
+  <si>
+    <t>Bunda Dorce</t>
+  </si>
+  <si>
+    <t>083121244650</t>
+  </si>
+  <si>
+    <t>Kristen</t>
+  </si>
+  <si>
+    <t>Putra</t>
+  </si>
+  <si>
+    <t>Transaksi Bisnis</t>
+  </si>
+  <si>
+    <t>Gaji Bulanan</t>
+  </si>
+  <si>
+    <t>Lainnya</t>
+  </si>
+  <si>
+    <t>Dibawah 3 juta</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Amar</t>
+  </si>
+  <si>
+    <t>untuk change phone</t>
+  </si>
+  <si>
     <t>083125094</t>
-  </si>
-  <si>
-    <t>senyumku094@yopmail.com</t>
-  </si>
-  <si>
-    <t>3171010103820001</t>
-  </si>
-  <si>
-    <t>Sofyan Mardinata</t>
-  </si>
-  <si>
-    <t>Kantor</t>
-  </si>
-  <si>
-    <t>Jln Kalibata No.9</t>
-  </si>
-  <si>
-    <t>DKI JAKARTA</t>
-  </si>
-  <si>
-    <t>KOTA ADM. JAKARTA SELATAN</t>
-  </si>
-  <si>
-    <t>PANCORAN</t>
-  </si>
-  <si>
-    <t>KALIBATA</t>
-  </si>
-  <si>
-    <t>SMP</t>
-  </si>
-  <si>
-    <t>Bunda Dorce</t>
-  </si>
-  <si>
-    <t>083121244650</t>
-  </si>
-  <si>
-    <t>Kristen</t>
-  </si>
-  <si>
-    <t>Putra</t>
-  </si>
-  <si>
-    <t>Transaksi Bisnis</t>
-  </si>
-  <si>
-    <t>Gaji Bulanan</t>
-  </si>
-  <si>
-    <t>Lainnya</t>
-  </si>
-  <si>
-    <t>Dibawah 3 juta</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>Amar</t>
-  </si>
-  <si>
-    <t>untuk change phone</t>
   </si>
   <si>
     <t>083125127</t>
@@ -205,9 +238,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -221,7 +254,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,22 +268,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,9 +312,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,84 +364,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,37 +412,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,145 +580,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,16 +607,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,8 +648,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,21 +665,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,26 +689,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -691,141 +724,141 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
@@ -1147,10 +1180,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2"/>
@@ -1158,33 +1191,38 @@
     <col min="1" max="1" width="18.5454545454545" customWidth="1"/>
     <col min="2" max="2" width="19.5454545454545" customWidth="1"/>
     <col min="3" max="3" width="15.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="21.7272727272727" customWidth="1"/>
-    <col min="5" max="5" width="13.7272727272727" customWidth="1"/>
-    <col min="6" max="6" width="25.5454545454545" customWidth="1"/>
-    <col min="7" max="7" width="22.5454545454545" customWidth="1"/>
-    <col min="8" max="8" width="16.4545454545455" customWidth="1"/>
-    <col min="9" max="9" width="11.9090909090909" customWidth="1"/>
-    <col min="10" max="10" width="19.4545454545455" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="12.1818181818182" customWidth="1"/>
-    <col min="13" max="13" width="16.1818181818182" customWidth="1"/>
-    <col min="14" max="14" width="27" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="10.0909090909091" customWidth="1"/>
-    <col min="17" max="17" width="11.2727272727273" customWidth="1"/>
-    <col min="18" max="18" width="13.8181818181818" customWidth="1"/>
-    <col min="19" max="19" width="22" customWidth="1"/>
-    <col min="21" max="21" width="14.3636363636364" customWidth="1"/>
-    <col min="22" max="22" width="16.4545454545455" customWidth="1"/>
-    <col min="23" max="23" width="12.9090909090909" customWidth="1"/>
-    <col min="24" max="24" width="14.6363636363636" customWidth="1"/>
-    <col min="25" max="25" width="14.0909090909091" customWidth="1"/>
-    <col min="26" max="26" width="15.2727272727273" customWidth="1"/>
-    <col min="27" max="27" width="13.0909090909091" customWidth="1"/>
-    <col min="28" max="28" width="16" customWidth="1"/>
+    <col min="4" max="4" width="20.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="25.8181818181818" customWidth="1"/>
+    <col min="6" max="6" width="26.7272727272727" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="21.7272727272727" customWidth="1"/>
+    <col min="9" max="10" width="13.7272727272727" customWidth="1"/>
+    <col min="11" max="11" width="28.4545454545455" customWidth="1"/>
+    <col min="12" max="12" width="22.5454545454545" customWidth="1"/>
+    <col min="13" max="13" width="16.4545454545455" customWidth="1"/>
+    <col min="14" max="14" width="11.9090909090909" customWidth="1"/>
+    <col min="15" max="15" width="19.4545454545455" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="12.1818181818182" customWidth="1"/>
+    <col min="18" max="18" width="16.1818181818182" customWidth="1"/>
+    <col min="19" max="19" width="27" customWidth="1"/>
+    <col min="20" max="20" width="12" customWidth="1"/>
+    <col min="21" max="21" width="10.0909090909091" customWidth="1"/>
+    <col min="22" max="22" width="11.2727272727273" customWidth="1"/>
+    <col min="23" max="23" width="13.8181818181818" customWidth="1"/>
+    <col min="24" max="24" width="22" customWidth="1"/>
+    <col min="26" max="26" width="14.3636363636364" customWidth="1"/>
+    <col min="27" max="27" width="16.4545454545455" customWidth="1"/>
+    <col min="28" max="28" width="12.9090909090909" customWidth="1"/>
+    <col min="29" max="29" width="14.6363636363636" customWidth="1"/>
+    <col min="30" max="30" width="14.0909090909091" customWidth="1"/>
+    <col min="31" max="31" width="15.2727272727273" customWidth="1"/>
+    <col min="32" max="32" width="13.0909090909091" customWidth="1"/>
+    <col min="33" max="33" width="16" customWidth="1"/>
+    <col min="34" max="34" width="13.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1269,136 +1307,170 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="4">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="3">
         <v>12</v>
       </c>
-      <c r="L2" s="4">
+      <c r="Q2" s="3">
         <v>13</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" t="s">
-        <v>43</v>
+      <c r="R2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="Y2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="Z2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AA2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="AB2" t="s">
-        <v>49</v>
+        <v>55</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>51</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
+  <dataValidations count="12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:G2">
+      <formula1>"Semua,Nasabah Baru,Nasabah Senyumku,Nasabah Tidak Melanjutkan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2">
+      <formula1>"Katolik,Kristen,Islam,Budha,Hindu,Lainnya"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2">
+      <formula1>"SETIA BUDI,TEBET,MAMPANG PRAPATAN,PASAR MINGGU,KEBAYORAN LAMA,CILANDAK,KEBAYORAN BARU,PANCORAN,JAGAKARSA,PESANGGRAHAN"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2">
+      <formula1>"KAB. ADM. KEP. SERIBU,KOTA ADM. JAKARTA PUSAT,KOTA ADM. JAKARTA UTARA,KOTA ADM. JAKARTA BARAT,KOTA ADM. JAKARTA SELATAN,KOTA ADM. JAKARTA TIMUR"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2">
       <formula1>"ACEH,BALI,BANTEN,BENGKULU,DAISTA YOGYAKARTA,DKI JAKARTA,JAMBI,JAWA BARAT,JAWA TENGAH,JAWA TIMUR,GORONTALO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2">
+      <formula1>"Pegawai Swasta,Ibu Rumah Tangga,Lainnya"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2">
       <formula1>"Gaji Bulanan,Pemasukan dari Usaha,Hasil Investasi,Warisan,Danah Hibah,Dana Pinjaman,Hadiah,Pendapatan Jasa,Pendapatan dari Keluarga (Suami/Istri/Orang Tua)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2">
       <formula1>"Tidak Sekolah,SD,SMP,SMA,Diploma,S1 (Sarjana),S2 (Magister),S3 (Doktoral),Profesor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2">
+      <formula1>"RAJA WATI,KALIBATA,DUREN TIGA,CIKOKO,PENGADEGAN,PANCORAN"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2">
       <formula1>"Rekening Tabungan,Rekening Gaji,Transaksi Pribadi,Transaksi Bisnis,Lainnya"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
-      <formula1>"KAB. ADM. KEP. SERIBU,KOTA ADM. JAKARTA PUSAT,KOTA ADM. JAKARTA UTARA,KOTA ADM. JAKARTA BARAT,KOTA ADM. JAKARTA SELATAN,KOTA ADM. JAKARTA TIMUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
-      <formula1>"SETIA BUDI,TEBET,MAMPANG PRAPATAN,PASAR MINGGU,KEBAYORAN LAMA,CILANDAK,KEBAYORAN BARU,PANCORAN,JAGAKARSA,PESANGGRAHAN"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2">
-      <formula1>"RAJA WATI,KALIBATA,DUREN TIGA,CIKOKO,PENGADEGAN,PANCORAN"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2">
-      <formula1>"Pegawai Swasta,Ibu Rumah Tangga,Lainnya"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2">
-      <formula1>"Katolik,Kristen,Islam,Budha,Hindu,Lainnya"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2">
       <formula1>"Jasa,Lainnya"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3">
-      <formula1>$Q$2:$Q$10</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3">
+      <formula1>$V$2:$V$10</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="senyumku094@yopmail.com"/>
+    <hyperlink ref="K2" r:id="rId1" display="tersenyumlah1@yopmail.com" tooltip="mailto:tersenyumlah1@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1421,52 +1493,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Website/DataFiles_CRM/Data_CSR_Management.xlsx
+++ b/Data Files/Website/DataFiles_CRM/Data_CSR_Management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11890" windowHeight="6840"/>
+    <workbookView windowWidth="17930" windowHeight="6920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
   <si>
     <t>SearchName</t>
   </si>
@@ -56,6 +56,42 @@
     <t>KTPName</t>
   </si>
   <si>
+    <t>KTPBirthplace</t>
+  </si>
+  <si>
+    <t>KTPBirthdate</t>
+  </si>
+  <si>
+    <t>KTPGender</t>
+  </si>
+  <si>
+    <t>KTPBloodType</t>
+  </si>
+  <si>
+    <t>KTPAddress</t>
+  </si>
+  <si>
+    <t>KTPNeighbourhood</t>
+  </si>
+  <si>
+    <t>KTPHamlet</t>
+  </si>
+  <si>
+    <t>KTPVillage</t>
+  </si>
+  <si>
+    <t>KTPReligion</t>
+  </si>
+  <si>
+    <t>KTPMarital_Status</t>
+  </si>
+  <si>
+    <t>KTPOccupation</t>
+  </si>
+  <si>
+    <t>KtpCitizenship</t>
+  </si>
+  <si>
     <t>AddressType</t>
   </si>
   <si>
@@ -122,7 +158,7 @@
     <t>untuk registrasi</t>
   </si>
   <si>
-    <t>08956151</t>
+    <t>08974348089</t>
   </si>
   <si>
     <t>Semua</t>
@@ -137,13 +173,55 @@
     <t>Nasabah Tidak Melanjutkan</t>
   </si>
   <si>
-    <t>tersenyumlah1@yopmail.com</t>
-  </si>
-  <si>
-    <t>3171011301920004</t>
-  </si>
-  <si>
-    <t>IRHAN SYAH</t>
+    <t>+628974348089</t>
+  </si>
+  <si>
+    <t>MIDGE001</t>
+  </si>
+  <si>
+    <t>sm34@yopmail.com</t>
+  </si>
+  <si>
+    <t>3171012805920001</t>
+  </si>
+  <si>
+    <t>M Angga Saputra</t>
+  </si>
+  <si>
+    <t>JAKARTA</t>
+  </si>
+  <si>
+    <t>28/05/1992</t>
+  </si>
+  <si>
+    <t>LAKI-LAKI</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Apartemen Kalibata City Tower Jasmine lantai 10 , No.14</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>KALIBATA</t>
+  </si>
+  <si>
+    <t>ISLAM</t>
+  </si>
+  <si>
+    <t>CERAI HIDUP</t>
+  </si>
+  <si>
+    <t>PENSIUNAN</t>
+  </si>
+  <si>
+    <t>WNI</t>
   </si>
   <si>
     <t>Kantor</t>
@@ -159,9 +237,6 @@
   </si>
   <si>
     <t>PANCORAN</t>
-  </si>
-  <si>
-    <t>KALIBATA</t>
   </si>
   <si>
     <t>SMP</t>
@@ -239,9 +314,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -254,7 +329,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,15 +343,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,13 +371,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -312,22 +379,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,7 +396,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,53 +477,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -412,187 +487,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,6 +678,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -621,15 +720,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -641,30 +731,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,10 +769,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,142 +799,147 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -870,12 +950,12 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
     <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
@@ -1180,10 +1260,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AT3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2"/>
@@ -1200,29 +1280,30 @@
     <col min="11" max="11" width="28.4545454545455" customWidth="1"/>
     <col min="12" max="12" width="22.5454545454545" customWidth="1"/>
     <col min="13" max="13" width="16.4545454545455" customWidth="1"/>
-    <col min="14" max="14" width="11.9090909090909" customWidth="1"/>
-    <col min="15" max="15" width="19.4545454545455" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
-    <col min="17" max="17" width="12.1818181818182" customWidth="1"/>
-    <col min="18" max="18" width="16.1818181818182" customWidth="1"/>
-    <col min="19" max="19" width="27" customWidth="1"/>
-    <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="21" max="21" width="10.0909090909091" customWidth="1"/>
-    <col min="22" max="22" width="11.2727272727273" customWidth="1"/>
-    <col min="23" max="23" width="13.8181818181818" customWidth="1"/>
-    <col min="24" max="24" width="22" customWidth="1"/>
-    <col min="26" max="26" width="14.3636363636364" customWidth="1"/>
-    <col min="27" max="27" width="16.4545454545455" customWidth="1"/>
-    <col min="28" max="28" width="12.9090909090909" customWidth="1"/>
-    <col min="29" max="29" width="14.6363636363636" customWidth="1"/>
-    <col min="30" max="30" width="14.0909090909091" customWidth="1"/>
-    <col min="31" max="31" width="15.2727272727273" customWidth="1"/>
-    <col min="32" max="32" width="13.0909090909091" customWidth="1"/>
-    <col min="33" max="33" width="16" customWidth="1"/>
-    <col min="34" max="34" width="13.0909090909091" customWidth="1"/>
+    <col min="14" max="25" width="22.5454545454545" customWidth="1"/>
+    <col min="26" max="26" width="11.9090909090909" customWidth="1"/>
+    <col min="27" max="27" width="19.4545454545455" customWidth="1"/>
+    <col min="28" max="28" width="16" customWidth="1"/>
+    <col min="29" max="29" width="12.1818181818182" customWidth="1"/>
+    <col min="30" max="30" width="16.1818181818182" customWidth="1"/>
+    <col min="31" max="31" width="27" customWidth="1"/>
+    <col min="32" max="32" width="12" customWidth="1"/>
+    <col min="33" max="33" width="10.0909090909091" customWidth="1"/>
+    <col min="34" max="34" width="11.2727272727273" customWidth="1"/>
+    <col min="35" max="35" width="13.8181818181818" customWidth="1"/>
+    <col min="36" max="36" width="22" customWidth="1"/>
+    <col min="38" max="38" width="14.3636363636364" customWidth="1"/>
+    <col min="39" max="39" width="16.4545454545455" customWidth="1"/>
+    <col min="40" max="40" width="12.9090909090909" customWidth="1"/>
+    <col min="41" max="41" width="14.6363636363636" customWidth="1"/>
+    <col min="42" max="42" width="14.0909090909091" customWidth="1"/>
+    <col min="43" max="43" width="15.2727272727273" customWidth="1"/>
+    <col min="44" max="44" width="13.0909090909091" customWidth="1"/>
+    <col min="45" max="45" width="16" customWidth="1"/>
+    <col min="46" max="46" width="13.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:46">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1262,40 +1343,40 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Z1" t="s">
@@ -1325,152 +1406,227 @@
       <c r="AH1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" ht="43.5" spans="1:45">
       <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="3">
+        <v>56</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" s="6">
         <v>12</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="AC2" s="6">
         <v>13</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W2" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>59</v>
+      <c r="AD2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:G2">
       <formula1>"Semua,Nasabah Baru,Nasabah Senyumku,Nasabah Tidak Melanjutkan"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2">
+      <formula1>"Tidak Sekolah,SD,SMP,SMA,Diploma,S1 (Sarjana),S2 (Magister),S3 (Doktoral),Profesor"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2">
+      <formula1>"Jasa,Lainnya"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2">
+      <formula1>"ACEH,BALI,BANTEN,BENGKULU,DAISTA YOGYAKARTA,DKI JAKARTA,JAMBI,JAWA BARAT,JAWA TENGAH,JAWA TIMUR,GORONTALO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2">
+      <formula1>"SETIA BUDI,TEBET,MAMPANG PRAPATAN,PASAR MINGGU,KEBAYORAN LAMA,CILANDAK,KEBAYORAN BARU,PANCORAN,JAGAKARSA,PESANGGRAHAN"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2">
+      <formula1>"KAB. ADM. KEP. SERIBU,KOTA ADM. JAKARTA PUSAT,KOTA ADM. JAKARTA UTARA,KOTA ADM. JAKARTA BARAT,KOTA ADM. JAKARTA SELATAN,KOTA ADM. JAKARTA TIMUR"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3">
+      <formula1>$AH$2:$AH$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2">
+      <formula1>"RAJA WATI,KALIBATA,DUREN TIGA,CIKOKO,PENGADEGAN,PANCORAN"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2">
       <formula1>"Katolik,Kristen,Islam,Budha,Hindu,Lainnya"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2">
-      <formula1>"SETIA BUDI,TEBET,MAMPANG PRAPATAN,PASAR MINGGU,KEBAYORAN LAMA,CILANDAK,KEBAYORAN BARU,PANCORAN,JAGAKARSA,PESANGGRAHAN"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2">
+      <formula1>"Rekening Tabungan,Rekening Gaji,Transaksi Pribadi,Transaksi Bisnis,Lainnya"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2">
-      <formula1>"KAB. ADM. KEP. SERIBU,KOTA ADM. JAKARTA PUSAT,KOTA ADM. JAKARTA UTARA,KOTA ADM. JAKARTA BARAT,KOTA ADM. JAKARTA SELATAN,KOTA ADM. JAKARTA TIMUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2">
-      <formula1>"ACEH,BALI,BANTEN,BENGKULU,DAISTA YOGYAKARTA,DKI JAKARTA,JAMBI,JAWA BARAT,JAWA TENGAH,JAWA TIMUR,GORONTALO"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2">
-      <formula1>"Pegawai Swasta,Ibu Rumah Tangga,Lainnya"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN2">
       <formula1>"Gaji Bulanan,Pemasukan dari Usaha,Hasil Investasi,Warisan,Danah Hibah,Dana Pinjaman,Hadiah,Pendapatan Jasa,Pendapatan dari Keluarga (Suami/Istri/Orang Tua)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2">
-      <formula1>"Tidak Sekolah,SD,SMP,SMA,Diploma,S1 (Sarjana),S2 (Magister),S3 (Doktoral),Profesor"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2">
-      <formula1>"RAJA WATI,KALIBATA,DUREN TIGA,CIKOKO,PENGADEGAN,PANCORAN"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2">
-      <formula1>"Rekening Tabungan,Rekening Gaji,Transaksi Pribadi,Transaksi Bisnis,Lainnya"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2">
-      <formula1>"Jasa,Lainnya"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3">
-      <formula1>$V$2:$V$10</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2">
+      <formula1>"Pegawai Swasta,Ibu Rumah Tangga,Lainnya"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="tersenyumlah1@yopmail.com" tooltip="mailto:tersenyumlah1@yopmail.com"/>
+    <hyperlink ref="K2" r:id="rId1" display="sm34@yopmail.com" tooltip="mailto:sm34@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1493,52 +1649,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Website/DataFiles_CRM/Data_CSR_Management.xlsx
+++ b/Data Files/Website/DataFiles_CRM/Data_CSR_Management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17930" windowHeight="6920"/>
+    <workbookView windowWidth="18530" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
     <t>untuk registrasi</t>
   </si>
   <si>
-    <t>08974348089</t>
+    <t>0869815382</t>
   </si>
   <si>
     <t>Semua</t>
@@ -173,28 +173,28 @@
     <t>Nasabah Tidak Melanjutkan</t>
   </si>
   <si>
-    <t>+628974348089</t>
+    <t>+62869815382</t>
   </si>
   <si>
     <t>MIDGE001</t>
   </si>
   <si>
-    <t>sm34@yopmail.com</t>
-  </si>
-  <si>
-    <t>3171012805920001</t>
-  </si>
-  <si>
-    <t>M Angga Saputra</t>
+    <t>senyumku03618277@yopmail.com</t>
+  </si>
+  <si>
+    <t>3171014508770001</t>
+  </si>
+  <si>
+    <t>ANGGUN ZUMA RIANY</t>
   </si>
   <si>
     <t>JAKARTA</t>
   </si>
   <si>
-    <t>28/05/1992</t>
-  </si>
-  <si>
-    <t>LAKI-LAKI</t>
+    <t>05/08/1977</t>
+  </si>
+  <si>
+    <t>PEREMPUAN</t>
   </si>
   <si>
     <t>A</t>
@@ -313,10 +313,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -343,7 +343,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,6 +351,105 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,83 +464,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,29 +477,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -487,13 +487,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,43 +601,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,115 +655,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,8 +684,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,6 +716,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,42 +778,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -802,127 +802,127 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1262,8 +1262,8 @@
   <sheetPr/>
   <dimension ref="A1:AT3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2"/>
@@ -1277,7 +1277,7 @@
     <col min="7" max="7" width="24" customWidth="1"/>
     <col min="8" max="8" width="21.7272727272727" customWidth="1"/>
     <col min="9" max="10" width="13.7272727272727" customWidth="1"/>
-    <col min="11" max="11" width="28.4545454545455" customWidth="1"/>
+    <col min="11" max="11" width="35.2727272727273" customWidth="1"/>
     <col min="12" max="12" width="22.5454545454545" customWidth="1"/>
     <col min="13" max="13" width="16.4545454545455" customWidth="1"/>
     <col min="14" max="25" width="22.5454545454545" customWidth="1"/>
@@ -1588,35 +1588,29 @@
     </row>
   </sheetData>
   <dataValidations count="12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2">
+      <formula1>"Rekening Tabungan,Rekening Gaji,Transaksi Pribadi,Transaksi Bisnis,Lainnya"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:G2">
       <formula1>"Semua,Nasabah Baru,Nasabah Senyumku,Nasabah Tidak Melanjutkan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2">
+      <formula1>"ACEH,BALI,BANTEN,BENGKULU,DAISTA YOGYAKARTA,DKI JAKARTA,JAMBI,JAWA BARAT,JAWA TENGAH,JAWA TIMUR,GORONTALO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2">
+      <formula1>"KAB. ADM. KEP. SERIBU,KOTA ADM. JAKARTA PUSAT,KOTA ADM. JAKARTA UTARA,KOTA ADM. JAKARTA BARAT,KOTA ADM. JAKARTA SELATAN,KOTA ADM. JAKARTA TIMUR"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2">
       <formula1>"Tidak Sekolah,SD,SMP,SMA,Diploma,S1 (Sarjana),S2 (Magister),S3 (Doktoral),Profesor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2">
-      <formula1>"Jasa,Lainnya"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2">
-      <formula1>"ACEH,BALI,BANTEN,BENGKULU,DAISTA YOGYAKARTA,DKI JAKARTA,JAMBI,JAWA BARAT,JAWA TENGAH,JAWA TIMUR,GORONTALO"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2">
+      <formula1>"RAJA WATI,KALIBATA,DUREN TIGA,CIKOKO,PENGADEGAN,PANCORAN"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2">
       <formula1>"SETIA BUDI,TEBET,MAMPANG PRAPATAN,PASAR MINGGU,KEBAYORAN LAMA,CILANDAK,KEBAYORAN BARU,PANCORAN,JAGAKARSA,PESANGGRAHAN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2">
-      <formula1>"KAB. ADM. KEP. SERIBU,KOTA ADM. JAKARTA PUSAT,KOTA ADM. JAKARTA UTARA,KOTA ADM. JAKARTA BARAT,KOTA ADM. JAKARTA SELATAN,KOTA ADM. JAKARTA TIMUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3">
-      <formula1>$AH$2:$AH$10</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2">
-      <formula1>"RAJA WATI,KALIBATA,DUREN TIGA,CIKOKO,PENGADEGAN,PANCORAN"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2">
       <formula1>"Katolik,Kristen,Islam,Budha,Hindu,Lainnya"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2">
-      <formula1>"Rekening Tabungan,Rekening Gaji,Transaksi Pribadi,Transaksi Bisnis,Lainnya"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN2">
       <formula1>"Gaji Bulanan,Pemasukan dari Usaha,Hasil Investasi,Warisan,Danah Hibah,Dana Pinjaman,Hadiah,Pendapatan Jasa,Pendapatan dari Keluarga (Suami/Istri/Orang Tua)"</formula1>
@@ -1624,9 +1618,15 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2">
       <formula1>"Pegawai Swasta,Ibu Rumah Tangga,Lainnya"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2">
+      <formula1>"Jasa,Lainnya"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3">
+      <formula1>$AH$2:$AH$10</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="sm34@yopmail.com" tooltip="mailto:sm34@yopmail.com"/>
+    <hyperlink ref="K2" r:id="rId1" display="senyumku03618277@yopmail.com" tooltip="mailto:senyumku03618277@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Data Files/Website/DataFiles_CRM/Data_CSR_Management.xlsx
+++ b/Data Files/Website/DataFiles_CRM/Data_CSR_Management.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
   <si>
     <t>SearchName</t>
   </si>
@@ -158,7 +158,7 @@
     <t>untuk registrasi</t>
   </si>
   <si>
-    <t>0869815382</t>
+    <t>08974348081</t>
   </si>
   <si>
     <t>Semua</t>
@@ -173,28 +173,28 @@
     <t>Nasabah Tidak Melanjutkan</t>
   </si>
   <si>
-    <t>+62869815382</t>
+    <t>+628974348081</t>
   </si>
   <si>
     <t>MIDGE001</t>
   </si>
   <si>
-    <t>senyumku03618277@yopmail.com</t>
-  </si>
-  <si>
-    <t>3171014508770001</t>
-  </si>
-  <si>
-    <t>ANGGUN ZUMA RIANY</t>
+    <t>stg36@yopmail.com</t>
+  </si>
+  <si>
+    <t>3171012109900004</t>
+  </si>
+  <si>
+    <t>Muhammad Mansyur</t>
   </si>
   <si>
     <t>JAKARTA</t>
   </si>
   <si>
-    <t>05/08/1977</t>
-  </si>
-  <si>
-    <t>PEREMPUAN</t>
+    <t>21/09/1990</t>
+  </si>
+  <si>
+    <t>LAKI-LAKI</t>
   </si>
   <si>
     <t>A</t>
@@ -203,10 +203,7 @@
     <t>Apartemen Kalibata City Tower Jasmine lantai 10 , No.14</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>-</t>
   </si>
   <si>
     <t>KALIBATA</t>
@@ -313,10 +310,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -343,6 +340,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -356,8 +368,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,90 +424,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -470,6 +439,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,6 +460,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -487,13 +484,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,7 +556,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,7 +622,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,49 +640,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,91 +658,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,62 +681,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,6 +711,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -781,7 +778,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -802,127 +799,127 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1262,8 +1259,8 @@
   <sheetPr/>
   <dimension ref="A1:AT3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2"/>
@@ -1496,28 +1493,28 @@
         <v>62</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="AB2" s="6">
         <v>12</v>
@@ -1526,97 +1523,97 @@
         <v>13</v>
       </c>
       <c r="AD2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH2" t="s">
         <v>73</v>
       </c>
-      <c r="AG2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>74</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AK2" t="s">
         <v>76</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>77</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>78</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>79</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>80</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>81</v>
       </c>
-      <c r="AP2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>82</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>83</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="I3" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="J3" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2">
-      <formula1>"Rekening Tabungan,Rekening Gaji,Transaksi Pribadi,Transaksi Bisnis,Lainnya"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2">
+      <formula1>"ACEH,BALI,BANTEN,BENGKULU,DAISTA YOGYAKARTA,DKI JAKARTA,JAMBI,JAWA BARAT,JAWA TENGAH,JAWA TIMUR,GORONTALO"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:G2">
       <formula1>"Semua,Nasabah Baru,Nasabah Senyumku,Nasabah Tidak Melanjutkan"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2">
-      <formula1>"ACEH,BALI,BANTEN,BENGKULU,DAISTA YOGYAKARTA,DKI JAKARTA,JAMBI,JAWA BARAT,JAWA TENGAH,JAWA TIMUR,GORONTALO"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2">
       <formula1>"KAB. ADM. KEP. SERIBU,KOTA ADM. JAKARTA PUSAT,KOTA ADM. JAKARTA UTARA,KOTA ADM. JAKARTA BARAT,KOTA ADM. JAKARTA SELATAN,KOTA ADM. JAKARTA TIMUR"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2">
+      <formula1>"Rekening Tabungan,Rekening Gaji,Transaksi Pribadi,Transaksi Bisnis,Lainnya"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2">
       <formula1>"Tidak Sekolah,SD,SMP,SMA,Diploma,S1 (Sarjana),S2 (Magister),S3 (Doktoral),Profesor"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2">
+      <formula1>"SETIA BUDI,TEBET,MAMPANG PRAPATAN,PASAR MINGGU,KEBAYORAN LAMA,CILANDAK,KEBAYORAN BARU,PANCORAN,JAGAKARSA,PESANGGRAHAN"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2">
       <formula1>"RAJA WATI,KALIBATA,DUREN TIGA,CIKOKO,PENGADEGAN,PANCORAN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2">
-      <formula1>"SETIA BUDI,TEBET,MAMPANG PRAPATAN,PASAR MINGGU,KEBAYORAN LAMA,CILANDAK,KEBAYORAN BARU,PANCORAN,JAGAKARSA,PESANGGRAHAN"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2">
-      <formula1>"Katolik,Kristen,Islam,Budha,Hindu,Lainnya"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2">
+      <formula1>"Pegawai Swasta,Ibu Rumah Tangga,Lainnya"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN2">
       <formula1>"Gaji Bulanan,Pemasukan dari Usaha,Hasil Investasi,Warisan,Danah Hibah,Dana Pinjaman,Hadiah,Pendapatan Jasa,Pendapatan dari Keluarga (Suami/Istri/Orang Tua)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2">
-      <formula1>"Pegawai Swasta,Ibu Rumah Tangga,Lainnya"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2">
+      <formula1>"Katolik,Kristen,Islam,Budha,Hindu,Lainnya"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2">
       <formula1>"Jasa,Lainnya"</formula1>
@@ -1626,7 +1623,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="senyumku03618277@yopmail.com" tooltip="mailto:senyumku03618277@yopmail.com"/>
+    <hyperlink ref="K2" r:id="rId1" display="stg36@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1649,52 +1646,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Website/DataFiles_CRM/Data_CSR_Management.xlsx
+++ b/Data Files/Website/DataFiles_CRM/Data_CSR_Management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070"/>
+    <workbookView windowWidth="22368" windowHeight="9480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -312,8 +312,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -340,9 +340,93 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,52 +438,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -408,17 +446,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,49 +474,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -484,187 +484,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,9 +680,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,15 +719,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -722,6 +730,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,44 +767,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,10 +787,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -799,127 +799,127 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1259,45 +1259,45 @@
   <sheetPr/>
   <dimension ref="A1:AT3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="18.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="19.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="15.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="20.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="25.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="26.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="18.5462962962963" customWidth="1"/>
+    <col min="2" max="2" width="19.5462962962963" customWidth="1"/>
+    <col min="3" max="3" width="15.6388888888889" customWidth="1"/>
+    <col min="4" max="4" width="20.3611111111111" customWidth="1"/>
+    <col min="5" max="5" width="25.8148148148148" customWidth="1"/>
+    <col min="6" max="6" width="26.7314814814815" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="21.7272727272727" customWidth="1"/>
-    <col min="9" max="10" width="13.7272727272727" customWidth="1"/>
-    <col min="11" max="11" width="35.2727272727273" customWidth="1"/>
-    <col min="12" max="12" width="22.5454545454545" customWidth="1"/>
-    <col min="13" max="13" width="16.4545454545455" customWidth="1"/>
-    <col min="14" max="25" width="22.5454545454545" customWidth="1"/>
-    <col min="26" max="26" width="11.9090909090909" customWidth="1"/>
-    <col min="27" max="27" width="19.4545454545455" customWidth="1"/>
+    <col min="8" max="8" width="21.7314814814815" customWidth="1"/>
+    <col min="9" max="10" width="13.7314814814815" customWidth="1"/>
+    <col min="11" max="11" width="35.2685185185185" customWidth="1"/>
+    <col min="12" max="12" width="22.5462962962963" customWidth="1"/>
+    <col min="13" max="13" width="16.4537037037037" customWidth="1"/>
+    <col min="14" max="25" width="22.5462962962963" customWidth="1"/>
+    <col min="26" max="26" width="11.9074074074074" customWidth="1"/>
+    <col min="27" max="27" width="19.4537037037037" customWidth="1"/>
     <col min="28" max="28" width="16" customWidth="1"/>
-    <col min="29" max="29" width="12.1818181818182" customWidth="1"/>
-    <col min="30" max="30" width="16.1818181818182" customWidth="1"/>
+    <col min="29" max="29" width="12.1851851851852" customWidth="1"/>
+    <col min="30" max="30" width="16.1851851851852" customWidth="1"/>
     <col min="31" max="31" width="27" customWidth="1"/>
     <col min="32" max="32" width="12" customWidth="1"/>
-    <col min="33" max="33" width="10.0909090909091" customWidth="1"/>
-    <col min="34" max="34" width="11.2727272727273" customWidth="1"/>
-    <col min="35" max="35" width="13.8181818181818" customWidth="1"/>
+    <col min="33" max="33" width="10.0925925925926" customWidth="1"/>
+    <col min="34" max="34" width="11.2685185185185" customWidth="1"/>
+    <col min="35" max="35" width="13.8148148148148" customWidth="1"/>
     <col min="36" max="36" width="22" customWidth="1"/>
-    <col min="38" max="38" width="14.3636363636364" customWidth="1"/>
-    <col min="39" max="39" width="16.4545454545455" customWidth="1"/>
-    <col min="40" max="40" width="12.9090909090909" customWidth="1"/>
-    <col min="41" max="41" width="14.6363636363636" customWidth="1"/>
-    <col min="42" max="42" width="14.0909090909091" customWidth="1"/>
-    <col min="43" max="43" width="15.2727272727273" customWidth="1"/>
-    <col min="44" max="44" width="13.0909090909091" customWidth="1"/>
+    <col min="38" max="38" width="14.3611111111111" customWidth="1"/>
+    <col min="39" max="39" width="16.4537037037037" customWidth="1"/>
+    <col min="40" max="40" width="12.9074074074074" customWidth="1"/>
+    <col min="41" max="41" width="14.6388888888889" customWidth="1"/>
+    <col min="42" max="42" width="14.0925925925926" customWidth="1"/>
+    <col min="43" max="43" width="15.2685185185185" customWidth="1"/>
+    <col min="44" max="44" width="13.0925925925926" customWidth="1"/>
     <col min="45" max="45" width="16" customWidth="1"/>
-    <col min="46" max="46" width="13.0909090909091" customWidth="1"/>
+    <col min="46" max="46" width="13.0925925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46">
@@ -1440,7 +1440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" ht="43.5" spans="1:45">
+    <row r="2" ht="43.2" spans="1:45">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -1585,41 +1585,41 @@
     </row>
   </sheetData>
   <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2">
-      <formula1>"ACEH,BALI,BANTEN,BENGKULU,DAISTA YOGYAKARTA,DKI JAKARTA,JAMBI,JAWA BARAT,JAWA TENGAH,JAWA TIMUR,GORONTALO"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2">
+      <formula1>"Rekening Tabungan,Rekening Gaji,Transaksi Pribadi,Transaksi Bisnis,Lainnya"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:G2">
       <formula1>"Semua,Nasabah Baru,Nasabah Senyumku,Nasabah Tidak Melanjutkan"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2">
-      <formula1>"KAB. ADM. KEP. SERIBU,KOTA ADM. JAKARTA PUSAT,KOTA ADM. JAKARTA UTARA,KOTA ADM. JAKARTA BARAT,KOTA ADM. JAKARTA SELATAN,KOTA ADM. JAKARTA TIMUR"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2">
+      <formula1>"SETIA BUDI,TEBET,MAMPANG PRAPATAN,PASAR MINGGU,KEBAYORAN LAMA,CILANDAK,KEBAYORAN BARU,PANCORAN,JAGAKARSA,PESANGGRAHAN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2">
-      <formula1>"Rekening Tabungan,Rekening Gaji,Transaksi Pribadi,Transaksi Bisnis,Lainnya"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2">
+      <formula1>"ACEH,BALI,BANTEN,BENGKULU,DAISTA YOGYAKARTA,DKI JAKARTA,JAMBI,JAWA BARAT,JAWA TENGAH,JAWA TIMUR,GORONTALO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2">
+      <formula1>"Jasa,Lainnya"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2">
       <formula1>"Tidak Sekolah,SD,SMP,SMA,Diploma,S1 (Sarjana),S2 (Magister),S3 (Doktoral),Profesor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2">
-      <formula1>"SETIA BUDI,TEBET,MAMPANG PRAPATAN,PASAR MINGGU,KEBAYORAN LAMA,CILANDAK,KEBAYORAN BARU,PANCORAN,JAGAKARSA,PESANGGRAHAN"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2">
+      <formula1>"KAB. ADM. KEP. SERIBU,KOTA ADM. JAKARTA PUSAT,KOTA ADM. JAKARTA UTARA,KOTA ADM. JAKARTA BARAT,KOTA ADM. JAKARTA SELATAN,KOTA ADM. JAKARTA TIMUR"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2">
       <formula1>"RAJA WATI,KALIBATA,DUREN TIGA,CIKOKO,PENGADEGAN,PANCORAN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2">
-      <formula1>"Pegawai Swasta,Ibu Rumah Tangga,Lainnya"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2">
+      <formula1>"Katolik,Kristen,Islam,Budha,Hindu,Lainnya"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN2">
       <formula1>"Gaji Bulanan,Pemasukan dari Usaha,Hasil Investasi,Warisan,Danah Hibah,Dana Pinjaman,Hadiah,Pendapatan Jasa,Pendapatan dari Keluarga (Suami/Istri/Orang Tua)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2">
-      <formula1>"Katolik,Kristen,Islam,Budha,Hindu,Lainnya"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2">
-      <formula1>"Jasa,Lainnya"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2">
+      <formula1>"Pegawai Swasta,Ibu Rumah Tangga,Lainnya"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3">
-      <formula1>$AH$2:$AH$10</formula1>
+      <formula1>$AH$2:$AH$9</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1639,9 +1639,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.4545454545455" customWidth="1"/>
+    <col min="1" max="1" width="17.4537037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/Data Files/Website/DataFiles_CRM/Data_CSR_Management.xlsx
+++ b/Data Files/Website/DataFiles_CRM/Data_CSR_Management.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>SearchName</t>
   </si>
@@ -158,7 +158,7 @@
     <t>untuk registrasi</t>
   </si>
   <si>
-    <t>08974348081</t>
+    <t>+628183174101181</t>
   </si>
   <si>
     <t>Semua</t>
@@ -173,19 +173,16 @@
     <t>Nasabah Tidak Melanjutkan</t>
   </si>
   <si>
-    <t>+628974348081</t>
-  </si>
-  <si>
     <t>MIDGE001</t>
   </si>
   <si>
-    <t>stg36@yopmail.com</t>
-  </si>
-  <si>
-    <t>3171012109900004</t>
-  </si>
-  <si>
-    <t>Muhammad Mansyur</t>
+    <t>stgcrmf320@yopmail.com</t>
+  </si>
+  <si>
+    <t>3171014202810001</t>
+  </si>
+  <si>
+    <t>YOANDA SYAHRINI</t>
   </si>
   <si>
     <t>JAKARTA</t>
@@ -267,15 +264,6 @@
   </si>
   <si>
     <t>Amar</t>
-  </si>
-  <si>
-    <t>untuk change phone</t>
-  </si>
-  <si>
-    <t>083125094</t>
-  </si>
-  <si>
-    <t>083125127</t>
   </si>
   <si>
     <t>list</t>
@@ -310,12 +298,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,15 +320,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9.75"/>
-      <color rgb="FF2C3132"/>
-      <name val="Roboto"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,126 +449,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -484,61 +465,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,61 +621,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,55 +633,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,25 +661,23 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -737,31 +716,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -775,159 +745,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -937,7 +917,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1257,13 +1236,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT3"/>
+  <dimension ref="A1:AT2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="18.5462962962963" customWidth="1"/>
     <col min="2" max="2" width="19.5462962962963" customWidth="1"/>
@@ -1273,7 +1252,8 @@
     <col min="6" max="6" width="26.7314814814815" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
     <col min="8" max="8" width="21.7314814814815" customWidth="1"/>
-    <col min="9" max="10" width="13.7314814814815" customWidth="1"/>
+    <col min="9" max="9" width="18.1666666666667" customWidth="1"/>
+    <col min="10" max="10" width="13.7314814814815" customWidth="1"/>
     <col min="11" max="11" width="35.2685185185185" customWidth="1"/>
     <col min="12" max="12" width="22.5462962962963" customWidth="1"/>
     <col min="13" max="13" width="16.4537037037037" customWidth="1"/>
@@ -1444,7 +1424,7 @@
       <c r="A2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D2" t="s">
@@ -1459,155 +1439,140 @@
       <c r="G2" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
         <v>52</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" t="s">
         <v>55</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>13</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB2" s="6">
-        <v>12</v>
-      </c>
-      <c r="AC2" s="6">
-        <v>13</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AH2" t="s">
         <v>72</v>
       </c>
-      <c r="AG2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>73</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AK2" t="s">
         <v>75</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>76</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>77</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>78</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>79</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>80</v>
       </c>
-      <c r="AP2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>81</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>82</v>
       </c>
-      <c r="AS2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="3"/>
     </row>
   </sheetData>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2">
-      <formula1>"Rekening Tabungan,Rekening Gaji,Transaksi Pribadi,Transaksi Bisnis,Lainnya"</formula1>
-    </dataValidation>
+  <dataValidations count="11">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:G2">
       <formula1>"Semua,Nasabah Baru,Nasabah Senyumku,Nasabah Tidak Melanjutkan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2">
+      <formula1>"ACEH,BALI,BANTEN,BENGKULU,DAISTA YOGYAKARTA,DKI JAKARTA,JAMBI,JAWA BARAT,JAWA TENGAH,JAWA TIMUR,GORONTALO"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2">
       <formula1>"SETIA BUDI,TEBET,MAMPANG PRAPATAN,PASAR MINGGU,KEBAYORAN LAMA,CILANDAK,KEBAYORAN BARU,PANCORAN,JAGAKARSA,PESANGGRAHAN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2">
-      <formula1>"ACEH,BALI,BANTEN,BENGKULU,DAISTA YOGYAKARTA,DKI JAKARTA,JAMBI,JAWA BARAT,JAWA TENGAH,JAWA TIMUR,GORONTALO"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2">
+      <formula1>"KAB. ADM. KEP. SERIBU,KOTA ADM. JAKARTA PUSAT,KOTA ADM. JAKARTA UTARA,KOTA ADM. JAKARTA BARAT,KOTA ADM. JAKARTA SELATAN,KOTA ADM. JAKARTA TIMUR"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2">
-      <formula1>"Jasa,Lainnya"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2">
+      <formula1>"Rekening Tabungan,Rekening Gaji,Transaksi Pribadi,Transaksi Bisnis,Lainnya"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2">
+      <formula1>"RAJA WATI,KALIBATA,DUREN TIGA,CIKOKO,PENGADEGAN,PANCORAN"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2">
       <formula1>"Tidak Sekolah,SD,SMP,SMA,Diploma,S1 (Sarjana),S2 (Magister),S3 (Doktoral),Profesor"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2">
-      <formula1>"KAB. ADM. KEP. SERIBU,KOTA ADM. JAKARTA PUSAT,KOTA ADM. JAKARTA UTARA,KOTA ADM. JAKARTA BARAT,KOTA ADM. JAKARTA SELATAN,KOTA ADM. JAKARTA TIMUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2">
-      <formula1>"RAJA WATI,KALIBATA,DUREN TIGA,CIKOKO,PENGADEGAN,PANCORAN"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2">
       <formula1>"Katolik,Kristen,Islam,Budha,Hindu,Lainnya"</formula1>
@@ -1618,12 +1583,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2">
       <formula1>"Pegawai Swasta,Ibu Rumah Tangga,Lainnya"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3">
-      <formula1>$AH$2:$AH$9</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2">
+      <formula1>"Jasa,Lainnya"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="stg36@yopmail.com"/>
+    <hyperlink ref="K2" r:id="rId1" display="stgcrmf320@yopmail.com" tooltip="mailto:stgcrmf320@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1646,52 +1611,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Website/DataFiles_CRM/Data_CSR_Management.xlsx
+++ b/Data Files/Website/DataFiles_CRM/Data_CSR_Management.xlsx
@@ -158,7 +158,7 @@
     <t>untuk registrasi</t>
   </si>
   <si>
-    <t>+628183174101181</t>
+    <t>+62808958282</t>
   </si>
   <si>
     <t>Semua</t>
@@ -176,13 +176,13 @@
     <t>MIDGE001</t>
   </si>
   <si>
-    <t>stgcrmf320@yopmail.com</t>
-  </si>
-  <si>
-    <t>3171014202810001</t>
-  </si>
-  <si>
-    <t>YOANDA SYAHRINI</t>
+    <t>senyumku45622497@yopmail.com</t>
+  </si>
+  <si>
+    <t>3224035703880026</t>
+  </si>
+  <si>
+    <t>YEJI</t>
   </si>
   <si>
     <t>JAKARTA</t>
@@ -191,7 +191,7 @@
     <t>21/09/1990</t>
   </si>
   <si>
-    <t>LAKI-LAKI</t>
+    <t>PEREMPUAN</t>
   </si>
   <si>
     <t>A</t>
@@ -298,10 +298,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -309,6 +309,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,6 +328,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -335,36 +389,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -382,30 +406,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -414,14 +414,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,6 +422,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,7 +450,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,19 +465,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,7 +531,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,151 +621,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,17 +668,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,6 +688,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,7 +726,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,15 +748,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -759,7 +759,10 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -768,146 +771,143 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1238,8 +1238,8 @@
   <sheetPr/>
   <dimension ref="A1:AT2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1559,36 +1559,36 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2">
       <formula1>"ACEH,BALI,BANTEN,BENGKULU,DAISTA YOGYAKARTA,DKI JAKARTA,JAMBI,JAWA BARAT,JAWA TENGAH,JAWA TIMUR,GORONTALO"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2">
+      <formula1>"Katolik,Kristen,Islam,Budha,Hindu,Lainnya"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2">
       <formula1>"SETIA BUDI,TEBET,MAMPANG PRAPATAN,PASAR MINGGU,KEBAYORAN LAMA,CILANDAK,KEBAYORAN BARU,PANCORAN,JAGAKARSA,PESANGGRAHAN"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2">
       <formula1>"KAB. ADM. KEP. SERIBU,KOTA ADM. JAKARTA PUSAT,KOTA ADM. JAKARTA UTARA,KOTA ADM. JAKARTA BARAT,KOTA ADM. JAKARTA SELATAN,KOTA ADM. JAKARTA TIMUR"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2">
-      <formula1>"Rekening Tabungan,Rekening Gaji,Transaksi Pribadi,Transaksi Bisnis,Lainnya"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2">
       <formula1>"RAJA WATI,KALIBATA,DUREN TIGA,CIKOKO,PENGADEGAN,PANCORAN"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2">
+      <formula1>"Pegawai Swasta,Ibu Rumah Tangga,Lainnya"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2">
       <formula1>"Tidak Sekolah,SD,SMP,SMA,Diploma,S1 (Sarjana),S2 (Magister),S3 (Doktoral),Profesor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2">
-      <formula1>"Katolik,Kristen,Islam,Budha,Hindu,Lainnya"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2">
+      <formula1>"Rekening Tabungan,Rekening Gaji,Transaksi Pribadi,Transaksi Bisnis,Lainnya"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN2">
       <formula1>"Gaji Bulanan,Pemasukan dari Usaha,Hasil Investasi,Warisan,Danah Hibah,Dana Pinjaman,Hadiah,Pendapatan Jasa,Pendapatan dari Keluarga (Suami/Istri/Orang Tua)"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2">
-      <formula1>"Pegawai Swasta,Ibu Rumah Tangga,Lainnya"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2">
       <formula1>"Jasa,Lainnya"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="stgcrmf320@yopmail.com" tooltip="mailto:stgcrmf320@yopmail.com"/>
+    <hyperlink ref="K2" r:id="rId1" display="senyumku45622497@yopmail.com" tooltip="mailto:senyumku45622497@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
